--- a/test_files/Extension_Scheme_calculation_hierarchy.xlsx
+++ b/test_files/Extension_Scheme_calculation_hierarchy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="ExtensionSchemes_O1234567890555" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Extensions_O1234567890555" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -55,7 +55,7 @@
     <t>Testilaajennus55</t>
   </si>
   <si>
-    <t>Test extensionscheme55</t>
+    <t>Test extension55</t>
   </si>
   <si>
     <t>2016-12-31</t>
@@ -171,7 +171,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -180,7 +180,7 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
